--- a/NLP/textCategory/kdata/语义-回答.xlsx
+++ b/NLP/textCategory/kdata/语义-回答.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="411">
   <si>
     <t>人工窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -985,13 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指西，直行200米不出门，左右两侧电梯上3楼。|指东，直行200米不出门，左右两侧电梯上3楼。</t>
-  </si>
-  <si>
-    <t>指西，直行200米不出门，左右两侧电梯上3楼。|指东，直行200米不出门，左右两侧电梯上3楼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指西，直行200米出门左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,10 +993,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指东，直走200米出门左转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指西，直行200米出门左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指北，直行通道过去，左右两边都可以。|指南，直行通道过去，左右两边都可以。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指北，直行通道过去右转。|指南，直行通道过去左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,10 +1009,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指西，直行200米不出门，左右两侧电梯上3楼。|指东，直行200米不出门，左右两侧电梯上3楼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指南，直行通道过去左转。</t>
   </si>
   <si>
@@ -1075,10 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指西，直行200米不出门，左右两侧电梯上3楼。|指东，直行200米不出门，左右两侧电梯上3楼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指北，直行通道过去左转。|指南，直行通道过去左转。|指西，直行200米到大门口左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1121,14 +1098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指东，直走200米左转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指西，直行200米到大门口左转。|指东，直走200米在大门口左转。|指东，直走200米在大门口右转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指西，直行200米到大门口右转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1137,10 +1106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指西，直行200米不出门，左右两侧电梯上3楼。|指东，直行200米不出门，左右两侧电梯上3楼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指北，直行通道过去右转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,10 +1122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指东，直走200米大门口左转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指东，直行200米出门左转警务室。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1225,14 +1186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指东，直行200米后出门坐电梯。|指西，执行200米后出门坐电梯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指北，直行通道过去左转。|指西，直行200米到大门口左转。|指东，直走200米大门口左转。|指南，直行通道过去左转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指北，直行通道过去左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1301,10 +1254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指西，直行200米不出门，左右两侧电梯上3楼。|指东，直行200米不出门，左右两侧电梯上3楼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指北，直行通道过去右转。|指南，直行通道过去左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1361,43 +1310,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指东，直行200米有肯德基和72街道。|指西，执行200米有麦当劳和汤上功夫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指西，直行200米左转。|指东，直行200米右转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指北，通道过去左右两侧都有。|指南，通道过去左右两侧都有。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指西，直行200米出门左转。|指东，直行200米出门右转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>指北，直行通道过去左转北10桥出去。|指北，直行通道过去右转北4桥出去。|指南，直行通道过去左转南4桥出去。|指南，直行通道过去右转南10桥出去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指南，直行通道过去左转南4桥出去。|指南，直行通道过去右转南10桥出去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指北，直行通道过去左转北10桥出去。|指北，直行通道过去右转北4桥出去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指南，直行通道过去左转南4桥出去。|指南，直行通道过去右转南10桥出去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，直行100米左转。|指东，直行50米下楼，地铁站有母婴室。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，直行200米后出门坐电梯。|指西，直行200米后出门坐电梯。</t>
+  </si>
+  <si>
+    <t>指东，直行200米有肯德基和72街道。|指西，直行200米有麦当劳和汤上功夫。</t>
+  </si>
+  <si>
+    <t>指东，直行200米出门左转。</t>
+  </si>
+  <si>
+    <t>指东，直行200米左转。</t>
+  </si>
+  <si>
+    <t>指西，直行200米到大门口左转。|指东，直行200米在大门口左转。|指东，直行200米在大门口右转。</t>
+  </si>
+  <si>
+    <t>指东，直行200米大门口左转。</t>
+  </si>
+  <si>
+    <t>指北，直行通道过去左转。|指西，直行200米到大门口左转。|指东，直行200米大门口左转。|指南，直行通道过去左转。</t>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>指西，直行200米左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指北，直行通道过去左转北10桥出去。|指北，直行通道过去右转北4桥出去。|指南，直行通道过去左转南4桥出去。|指南，直行通道过去右转南10桥出去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指南，直行通道过去左转南4桥出去。|指南，直行通道过去右转南10桥出去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指北，直行通道过去左转北10桥出去。|指北，直行通道过去右转北4桥出去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指南，直行通道过去左转南4桥出去。|指南，直行通道过去右转南10桥出去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指东，直行100米左转。|指东，直行50米下楼，地铁站有母婴室。</t>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行200米不出门，左侧电梯上3楼。|指西，直行200米不出门，右侧电梯上3楼。|指东，直行200米不出门，左侧电梯上3楼。|指东，直行200米不出门，右侧电梯上3楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指北，直行通道过去，左转有自助售票机。|指北，直行通道过去，右转有自助售票机。|指南，直行通道过去，左转有自助售票机。|指南，直行通道过去，右转有自助售票机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指北，直行通道过去，左转有自助售票机。|指北，直行通道过去，右转有自助售票机。|指南，直行通道过去，左转有自助售票机。|指南，直行通道过去，右转有自助售票机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指北，直行通道过去，左转有自助取票机。|指北，直行通道过去，右转有自助取票机。|指南，直行通道过去，左转有自助取票机。|指南，直行通道过去，右转有自助取票机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，北到达口在您的左侧，越往前编号越小。|指东，南到达口在您的右侧，越往前编号越小。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,6 +1482,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,17 +1769,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="113.625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1770,877 +1791,877 @@
       <c r="B1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>358</v>
+      <c r="C80" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2650,1306 +2671,1306 @@
       <c r="B81" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C185" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C187" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C191" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>301</v>
+      <c r="C199" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3959,19 +3980,19 @@
       <c r="B200" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>385</v>
+      <c r="C201" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3981,19 +4002,19 @@
       <c r="B202" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>386</v>
+      <c r="C203" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4003,30 +4024,30 @@
       <c r="B204" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>387</v>
+      <c r="C206" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4036,30 +4057,30 @@
       <c r="B207" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>388</v>
+      <c r="C209" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4069,30 +4090,30 @@
       <c r="B210" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>390</v>
+      <c r="C212" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4102,30 +4123,30 @@
       <c r="B213" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>391</v>
+      <c r="C215" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4135,30 +4156,30 @@
       <c r="B216" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>392</v>
+      <c r="C218" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4168,19 +4189,19 @@
       <c r="B219" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>391</v>
+      <c r="C220" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4190,8 +4211,8 @@
       <c r="B221" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>393</v>
+      <c r="C221" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4201,8 +4222,8 @@
       <c r="B222" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>393</v>
+      <c r="C222" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4212,8 +4233,8 @@
       <c r="B223" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>393</v>
+      <c r="C223" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4223,8 +4244,8 @@
       <c r="B224" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>393</v>
+      <c r="C224" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4234,8 +4255,8 @@
       <c r="B225" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>393</v>
+      <c r="C225" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4245,8 +4266,8 @@
       <c r="B226" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>393</v>
+      <c r="C226" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4256,8 +4277,8 @@
       <c r="B227" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>393</v>
+      <c r="C227" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4267,8 +4288,8 @@
       <c r="B228" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>393</v>
+      <c r="C228" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4278,19 +4299,19 @@
       <c r="B229" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>394</v>
+      <c r="C230" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4300,19 +4321,19 @@
       <c r="B231" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>358</v>
+      <c r="C232" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4322,8 +4343,8 @@
       <c r="B233" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>393</v>
+      <c r="C233" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4333,19 +4354,19 @@
       <c r="B234" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>387</v>
+      <c r="C235" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4355,8 +4376,8 @@
       <c r="B236" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>393</v>
+      <c r="C236" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4366,8 +4387,8 @@
       <c r="B237" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>393</v>
+      <c r="C237" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4377,8 +4398,8 @@
       <c r="B238" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>393</v>
+      <c r="C238" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4388,8 +4409,8 @@
       <c r="B239" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>393</v>
+      <c r="C239" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4399,8 +4420,8 @@
       <c r="B240" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>393</v>
+      <c r="C240" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4410,8 +4431,8 @@
       <c r="B241" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>393</v>
+      <c r="C241" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4421,8 +4442,8 @@
       <c r="B242" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>384</v>
+      <c r="C242" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4432,89 +4453,94 @@
       <c r="B243" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C246" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>400</v>
+      <c r="C250" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C250">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="到达口"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A18:C232">
       <sortCondition descending="1" ref="A1"/>
     </sortState>

--- a/NLP/textCategory/kdata/语义-回答.xlsx
+++ b/NLP/textCategory/kdata/语义-回答.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="423">
   <si>
     <t>人工窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1262,10 +1262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指东，北到达口在您的左侧，越往前编号越小。|指东，南到达口在您的右侧，越往前编号越小。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指北，直行通道过去右转，北4桥。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,10 +1294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指西，北到达口在您的右侧，越往前编号越大。|指西，南到达口在您的左侧，越往前编号越大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指东，直行200米左转。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1411,7 +1403,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指东，北到达口在您的左侧，越往前编号越小。|指东，南到达口在您的右侧，越往前编号越小。</t>
+    <t>指西，直行20米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行50米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行50米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行50米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行120米。</t>
+  </si>
+  <si>
+    <t>指西，直行120米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行150米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行150米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行180米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指西，直行180米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，直行180米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，直行180米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，直行150米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，直行20米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指东，直行20米。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,11 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -1795,7 +1841,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1852,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +1863,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1825,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1839,7 +1885,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1896,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1858,10 +1904,10 @@
         <v>259</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
@@ -1869,10 +1915,10 @@
         <v>260</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
@@ -1880,10 +1926,10 @@
         <v>261</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>212</v>
       </c>
@@ -1894,7 +1940,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>226</v>
       </c>
@@ -1905,7 +1951,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
@@ -1913,10 +1959,10 @@
         <v>262</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
@@ -1927,7 +1973,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
@@ -1935,10 +1981,10 @@
         <v>262</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -1946,10 +1992,10 @@
         <v>264</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>185</v>
       </c>
@@ -1960,7 +2006,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -1971,7 +2017,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -1982,7 +2028,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>145</v>
       </c>
@@ -1993,7 +2039,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
@@ -2004,7 +2050,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -2015,7 +2061,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
@@ -2026,7 +2072,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>200</v>
       </c>
@@ -2037,7 +2083,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
@@ -2048,7 +2094,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>206</v>
       </c>
@@ -2059,7 +2105,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>132</v>
       </c>
@@ -2070,7 +2116,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>234</v>
       </c>
@@ -2078,10 +2124,10 @@
         <v>266</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2138,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -2100,10 +2146,10 @@
         <v>264</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>248</v>
       </c>
@@ -2114,7 +2160,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
@@ -2122,10 +2168,10 @@
         <v>268</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2133,10 +2179,10 @@
         <v>269</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>166</v>
       </c>
@@ -2144,10 +2190,10 @@
         <v>270</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>126</v>
       </c>
@@ -2155,10 +2201,10 @@
         <v>270</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>199</v>
       </c>
@@ -2166,10 +2212,10 @@
         <v>270</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>235</v>
       </c>
@@ -2177,10 +2223,10 @@
         <v>270</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
@@ -2191,7 +2237,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>224</v>
       </c>
@@ -2202,7 +2248,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -2213,7 +2259,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -2224,7 +2270,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -2235,7 +2281,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>225</v>
       </c>
@@ -2246,7 +2292,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>227</v>
       </c>
@@ -2257,7 +2303,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2268,7 +2314,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
@@ -2279,7 +2325,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
@@ -2290,7 +2336,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>152</v>
       </c>
@@ -2301,7 +2347,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>113</v>
       </c>
@@ -2312,7 +2358,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
@@ -2323,7 +2369,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -2334,7 +2380,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2391,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -2353,10 +2399,10 @@
         <v>264</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -2367,7 +2413,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>150</v>
       </c>
@@ -2378,7 +2424,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
@@ -2389,7 +2435,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>203</v>
       </c>
@@ -2397,10 +2443,10 @@
         <v>272</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>198</v>
       </c>
@@ -2408,10 +2454,10 @@
         <v>262</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>120</v>
       </c>
@@ -2422,7 +2468,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>188</v>
       </c>
@@ -2433,7 +2479,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>236</v>
       </c>
@@ -2444,7 +2490,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>232</v>
       </c>
@@ -2455,7 +2501,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -2463,10 +2509,10 @@
         <v>273</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>241</v>
       </c>
@@ -2474,10 +2520,10 @@
         <v>273</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>149</v>
       </c>
@@ -2488,7 +2534,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
@@ -2499,7 +2545,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>102</v>
       </c>
@@ -2510,7 +2556,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>192</v>
       </c>
@@ -2521,7 +2567,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>46</v>
       </c>
@@ -2529,10 +2575,10 @@
         <v>274</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
@@ -2543,7 +2589,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>108</v>
       </c>
@@ -2554,7 +2600,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -2565,7 +2611,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +2622,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>49</v>
       </c>
@@ -2587,7 +2633,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -2598,7 +2644,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>183</v>
       </c>
@@ -2609,7 +2655,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>172</v>
       </c>
@@ -2620,7 +2666,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>119</v>
       </c>
@@ -2631,7 +2677,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -2642,7 +2688,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>204</v>
       </c>
@@ -2653,7 +2699,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
@@ -2675,7 +2721,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
@@ -2686,7 +2732,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>135</v>
       </c>
@@ -2697,7 +2743,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>173</v>
       </c>
@@ -2705,10 +2751,10 @@
         <v>278</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>184</v>
       </c>
@@ -2716,10 +2762,10 @@
         <v>262</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>52</v>
       </c>
@@ -2727,10 +2773,10 @@
         <v>279</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>162</v>
       </c>
@@ -2738,10 +2784,10 @@
         <v>279</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>45</v>
       </c>
@@ -2749,10 +2795,10 @@
         <v>279</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>299</v>
       </c>
@@ -2760,10 +2806,10 @@
         <v>279</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>63</v>
       </c>
@@ -2774,7 +2820,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +2831,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -2796,7 +2842,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>220</v>
       </c>
@@ -2807,7 +2853,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>249</v>
       </c>
@@ -2818,7 +2864,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>154</v>
       </c>
@@ -2829,7 +2875,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>90</v>
       </c>
@@ -2840,7 +2886,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>40</v>
       </c>
@@ -2851,7 +2897,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>208</v>
       </c>
@@ -2862,7 +2908,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>61</v>
       </c>
@@ -2873,7 +2919,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>182</v>
       </c>
@@ -2884,7 +2930,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>73</v>
       </c>
@@ -2895,7 +2941,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>20</v>
       </c>
@@ -2906,7 +2952,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>211</v>
       </c>
@@ -2917,7 +2963,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>59</v>
       </c>
@@ -2928,7 +2974,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>81</v>
       </c>
@@ -2939,7 +2985,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>237</v>
       </c>
@@ -2950,7 +2996,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -2961,7 +3007,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>89</v>
       </c>
@@ -2972,7 +3018,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>53</v>
       </c>
@@ -2983,7 +3029,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>151</v>
       </c>
@@ -2994,7 +3040,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>28</v>
       </c>
@@ -3005,7 +3051,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3016,7 +3062,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>181</v>
       </c>
@@ -3027,7 +3073,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
@@ -3038,7 +3084,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>244</v>
       </c>
@@ -3049,7 +3095,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>221</v>
       </c>
@@ -3060,7 +3106,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>141</v>
       </c>
@@ -3071,7 +3117,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>105</v>
       </c>
@@ -3082,7 +3128,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -3093,7 +3139,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>131</v>
       </c>
@@ -3104,7 +3150,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>215</v>
       </c>
@@ -3115,7 +3161,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
@@ -3126,7 +3172,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>157</v>
       </c>
@@ -3137,7 +3183,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>179</v>
       </c>
@@ -3148,7 +3194,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>180</v>
       </c>
@@ -3159,7 +3205,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>223</v>
       </c>
@@ -3170,7 +3216,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>42</v>
       </c>
@@ -3181,7 +3227,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>205</v>
       </c>
@@ -3192,7 +3238,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>139</v>
       </c>
@@ -3203,7 +3249,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>209</v>
       </c>
@@ -3214,7 +3260,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>66</v>
       </c>
@@ -3225,7 +3271,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>213</v>
       </c>
@@ -3236,7 +3282,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>155</v>
       </c>
@@ -3247,7 +3293,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>194</v>
       </c>
@@ -3258,7 +3304,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>96</v>
       </c>
@@ -3269,7 +3315,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>70</v>
       </c>
@@ -3280,7 +3326,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>247</v>
       </c>
@@ -3291,7 +3337,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>134</v>
       </c>
@@ -3302,7 +3348,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>164</v>
       </c>
@@ -3313,7 +3359,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>197</v>
       </c>
@@ -3324,7 +3370,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>130</v>
       </c>
@@ -3335,7 +3381,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>41</v>
       </c>
@@ -3346,7 +3392,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>246</v>
       </c>
@@ -3354,10 +3400,10 @@
         <v>283</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>170</v>
       </c>
@@ -3365,10 +3411,10 @@
         <v>283</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>98</v>
       </c>
@@ -3376,10 +3422,10 @@
         <v>283</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>219</v>
       </c>
@@ -3387,10 +3433,10 @@
         <v>283</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>136</v>
       </c>
@@ -3398,10 +3444,10 @@
         <v>283</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>75</v>
       </c>
@@ -3409,10 +3455,10 @@
         <v>283</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>24</v>
       </c>
@@ -3420,10 +3466,10 @@
         <v>283</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>196</v>
       </c>
@@ -3431,10 +3477,10 @@
         <v>283</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>18</v>
       </c>
@@ -3442,10 +3488,10 @@
         <v>283</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>121</v>
       </c>
@@ -3453,10 +3499,10 @@
         <v>283</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>214</v>
       </c>
@@ -3464,10 +3510,10 @@
         <v>283</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
@@ -3475,10 +3521,10 @@
         <v>283</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
@@ -3486,10 +3532,10 @@
         <v>283</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>91</v>
       </c>
@@ -3497,10 +3543,10 @@
         <v>283</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>230</v>
       </c>
@@ -3508,10 +3554,10 @@
         <v>283</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>107</v>
       </c>
@@ -3519,10 +3565,10 @@
         <v>283</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>239</v>
       </c>
@@ -3530,10 +3576,10 @@
         <v>283</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>176</v>
       </c>
@@ -3541,10 +3587,10 @@
         <v>283</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>92</v>
       </c>
@@ -3552,10 +3598,10 @@
         <v>283</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>47</v>
       </c>
@@ -3563,10 +3609,10 @@
         <v>283</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>80</v>
       </c>
@@ -3574,10 +3620,10 @@
         <v>283</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>160</v>
       </c>
@@ -3585,10 +3631,10 @@
         <v>283</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>38</v>
       </c>
@@ -3596,10 +3642,10 @@
         <v>283</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>163</v>
       </c>
@@ -3607,10 +3653,10 @@
         <v>283</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>193</v>
       </c>
@@ -3618,10 +3664,10 @@
         <v>283</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>202</v>
       </c>
@@ -3629,10 +3675,10 @@
         <v>283</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>62</v>
       </c>
@@ -3640,10 +3686,10 @@
         <v>283</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>50</v>
       </c>
@@ -3651,10 +3697,10 @@
         <v>283</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>245</v>
       </c>
@@ -3665,7 +3711,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>23</v>
       </c>
@@ -3673,10 +3719,10 @@
         <v>286</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -3684,10 +3730,10 @@
         <v>286</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>229</v>
       </c>
@@ -3695,10 +3741,10 @@
         <v>286</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>16</v>
       </c>
@@ -3706,10 +3752,10 @@
         <v>286</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>218</v>
       </c>
@@ -3717,10 +3763,10 @@
         <v>286</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>169</v>
       </c>
@@ -3728,10 +3774,10 @@
         <v>286</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>207</v>
       </c>
@@ -3739,10 +3785,10 @@
         <v>286</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>201</v>
       </c>
@@ -3750,10 +3796,10 @@
         <v>286</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>65</v>
       </c>
@@ -3761,10 +3807,10 @@
         <v>286</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>138</v>
       </c>
@@ -3772,10 +3818,10 @@
         <v>286</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>115</v>
       </c>
@@ -3783,10 +3829,10 @@
         <v>286</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>178</v>
       </c>
@@ -3794,10 +3840,10 @@
         <v>286</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -3805,10 +3851,10 @@
         <v>286</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>104</v>
       </c>
@@ -3816,10 +3862,10 @@
         <v>286</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>72</v>
       </c>
@@ -3827,10 +3873,10 @@
         <v>286</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>110</v>
       </c>
@@ -3838,10 +3884,10 @@
         <v>286</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>175</v>
       </c>
@@ -3849,10 +3895,10 @@
         <v>286</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>243</v>
       </c>
@@ -3860,10 +3906,10 @@
         <v>286</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>133</v>
       </c>
@@ -3871,10 +3917,10 @@
         <v>286</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>29</v>
       </c>
@@ -3882,10 +3928,10 @@
         <v>286</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>77</v>
       </c>
@@ -3893,10 +3939,10 @@
         <v>286</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>55</v>
       </c>
@@ -3904,10 +3950,10 @@
         <v>286</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>148</v>
       </c>
@@ -3915,10 +3961,10 @@
         <v>286</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>216</v>
       </c>
@@ -3926,10 +3972,10 @@
         <v>286</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>85</v>
       </c>
@@ -3937,10 +3983,10 @@
         <v>286</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>32</v>
       </c>
@@ -3948,10 +3994,10 @@
         <v>286</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>129</v>
       </c>
@@ -3959,10 +4005,10 @@
         <v>286</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>57</v>
       </c>
@@ -3970,7 +4016,7 @@
         <v>286</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3981,10 +4027,10 @@
         <v>287</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>144</v>
       </c>
@@ -3992,7 +4038,7 @@
         <v>265</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4003,10 +4049,10 @@
         <v>288</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>168</v>
       </c>
@@ -4014,7 +4060,7 @@
         <v>265</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4025,10 +4071,10 @@
         <v>289</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>19</v>
       </c>
@@ -4039,7 +4085,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>153</v>
       </c>
@@ -4047,7 +4093,7 @@
         <v>265</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4058,10 +4104,10 @@
         <v>288</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>240</v>
       </c>
@@ -4069,10 +4115,10 @@
         <v>290</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>165</v>
       </c>
@@ -4080,7 +4126,7 @@
         <v>278</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4091,10 +4137,10 @@
         <v>288</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>190</v>
       </c>
@@ -4102,10 +4148,10 @@
         <v>265</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>127</v>
       </c>
@@ -4113,7 +4159,7 @@
         <v>265</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4124,10 +4170,10 @@
         <v>291</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>100</v>
       </c>
@@ -4138,7 +4184,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>140</v>
       </c>
@@ -4146,7 +4192,7 @@
         <v>265</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4157,10 +4203,10 @@
         <v>288</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>21</v>
       </c>
@@ -4168,10 +4214,10 @@
         <v>293</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>143</v>
       </c>
@@ -4179,7 +4225,7 @@
         <v>279</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4190,10 +4236,10 @@
         <v>288</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>83</v>
       </c>
@@ -4201,7 +4247,7 @@
         <v>265</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4212,7 +4258,7 @@
         <v>289</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4223,7 +4269,7 @@
         <v>289</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4234,7 +4280,7 @@
         <v>289</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4245,7 +4291,7 @@
         <v>289</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4256,7 +4302,7 @@
         <v>289</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4267,7 +4313,7 @@
         <v>289</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4278,7 +4324,7 @@
         <v>289</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4289,7 +4335,7 @@
         <v>289</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4300,10 +4346,10 @@
         <v>289</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>56</v>
       </c>
@@ -4311,7 +4357,7 @@
         <v>265</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4322,10 +4368,10 @@
         <v>288</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>109</v>
       </c>
@@ -4344,7 +4390,7 @@
         <v>288</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4355,10 +4401,10 @@
         <v>288</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>116</v>
       </c>
@@ -4366,7 +4412,7 @@
         <v>294</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4377,7 +4423,7 @@
         <v>289</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4388,7 +4434,7 @@
         <v>289</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4399,7 +4445,7 @@
         <v>289</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4410,7 +4456,7 @@
         <v>289</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4421,7 +4467,7 @@
         <v>289</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4432,7 +4478,7 @@
         <v>289</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4443,7 +4489,7 @@
         <v>289</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4454,10 +4500,10 @@
         <v>289</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>4</v>
       </c>
@@ -4465,10 +4511,10 @@
         <v>262</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>191</v>
       </c>
@@ -4476,10 +4522,10 @@
         <v>295</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>12</v>
       </c>
@@ -4487,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="27" hidden="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -4498,10 +4544,10 @@
         <v>261</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>5</v>
       </c>
@@ -4509,10 +4555,10 @@
         <v>298</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>123</v>
       </c>
@@ -4523,7 +4569,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>7</v>
       </c>
@@ -4531,16 +4577,11 @@
         <v>297</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C250">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="到达口"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A18:C232">
       <sortCondition descending="1" ref="A1"/>
     </sortState>
